--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.3633995</v>
+        <v>5.762012</v>
       </c>
       <c r="H2">
-        <v>8.726799</v>
+        <v>11.524024</v>
       </c>
       <c r="I2">
-        <v>0.2236180428734886</v>
+        <v>0.2457537791957647</v>
       </c>
       <c r="J2">
-        <v>0.1722580872859945</v>
+        <v>0.1898342676496165</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>8.809904306877</v>
+        <v>62.43942650271601</v>
       </c>
       <c r="R2">
-        <v>35.239617227508</v>
+        <v>249.757706010864</v>
       </c>
       <c r="S2">
-        <v>0.0008889607308463787</v>
+        <v>0.004538733793993842</v>
       </c>
       <c r="T2">
-        <v>0.0004663125534888947</v>
+        <v>0.002396271683462537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.3633995</v>
+        <v>5.762012</v>
       </c>
       <c r="H3">
-        <v>8.726799</v>
+        <v>11.524024</v>
       </c>
       <c r="I3">
-        <v>0.2236180428734886</v>
+        <v>0.2457537791957647</v>
       </c>
       <c r="J3">
-        <v>0.1722580872859945</v>
+        <v>0.1898342676496165</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>609.5442931959249</v>
+        <v>804.9232099711332</v>
       </c>
       <c r="R3">
-        <v>3657.26575917555</v>
+        <v>4829.5392598268</v>
       </c>
       <c r="S3">
-        <v>0.0615058826393509</v>
+        <v>0.05851002130051706</v>
       </c>
       <c r="T3">
-        <v>0.04839521734695221</v>
+        <v>0.0463364608737645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.3633995</v>
+        <v>5.762012</v>
       </c>
       <c r="H4">
-        <v>8.726799</v>
+        <v>11.524024</v>
       </c>
       <c r="I4">
-        <v>0.2236180428734886</v>
+        <v>0.2457537791957647</v>
       </c>
       <c r="J4">
-        <v>0.1722580872859945</v>
+        <v>0.1898342676496165</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>813.1406753117066</v>
+        <v>864.9983120105601</v>
       </c>
       <c r="R4">
-        <v>4878.844051870239</v>
+        <v>5189.98987206336</v>
       </c>
       <c r="S4">
-        <v>0.0820497140294426</v>
+        <v>0.0628768918993704</v>
       </c>
       <c r="T4">
-        <v>0.06455990180636249</v>
+        <v>0.04979476295855237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.3633995</v>
+        <v>5.762012</v>
       </c>
       <c r="H5">
-        <v>8.726799</v>
+        <v>11.524024</v>
       </c>
       <c r="I5">
-        <v>0.2236180428734886</v>
+        <v>0.2457537791957647</v>
       </c>
       <c r="J5">
-        <v>0.1722580872859945</v>
+        <v>0.1898342676496165</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>130.7419551416377</v>
+        <v>187.088052556676</v>
       </c>
       <c r="R5">
-        <v>522.9678205665509</v>
+        <v>748.3522102267041</v>
       </c>
       <c r="S5">
-        <v>0.01319247746020012</v>
+        <v>0.01359946614106946</v>
       </c>
       <c r="T5">
-        <v>0.006920235774029596</v>
+        <v>0.007179979505997107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.3633995</v>
+        <v>5.762012</v>
       </c>
       <c r="H6">
-        <v>8.726799</v>
+        <v>11.524024</v>
       </c>
       <c r="I6">
-        <v>0.2236180428734886</v>
+        <v>0.2457537791957647</v>
       </c>
       <c r="J6">
-        <v>0.1722580872859945</v>
+        <v>0.1898342676496165</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>27.287458358609</v>
+        <v>300.1445898835506</v>
       </c>
       <c r="R6">
-        <v>163.724750151654</v>
+        <v>1800.867539301304</v>
       </c>
       <c r="S6">
-        <v>0.002753432736661376</v>
+        <v>0.02181756735273084</v>
       </c>
       <c r="T6">
-        <v>0.002166507820435484</v>
+        <v>0.01727821719305374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.3633995</v>
+        <v>5.762012</v>
       </c>
       <c r="H7">
-        <v>8.726799</v>
+        <v>11.524024</v>
       </c>
       <c r="I7">
-        <v>0.2236180428734886</v>
+        <v>0.2457537791957647</v>
       </c>
       <c r="J7">
-        <v>0.1722580872859945</v>
+        <v>0.1898342676496165</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>626.606854968467</v>
+        <v>1161.244706788373</v>
       </c>
       <c r="R7">
-        <v>3759.641129810802</v>
+        <v>6967.46824073024</v>
       </c>
       <c r="S7">
-        <v>0.06322757527698719</v>
+        <v>0.08441109870808308</v>
       </c>
       <c r="T7">
-        <v>0.04974991198472575</v>
+        <v>0.06684857543478624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>8.100365999999999</v>
       </c>
       <c r="I8">
-        <v>0.1383774273154795</v>
+        <v>0.1151620624513844</v>
       </c>
       <c r="J8">
-        <v>0.159892940524527</v>
+        <v>0.1334366404741827</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>5.451670523611999</v>
+        <v>29.259583139946</v>
       </c>
       <c r="R8">
-        <v>32.710023141672</v>
+        <v>175.557498839676</v>
       </c>
       <c r="S8">
-        <v>0.0005500991661419922</v>
+        <v>0.002126884666207956</v>
       </c>
       <c r="T8">
-        <v>0.0004328393897527173</v>
+        <v>0.001684366300476525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>8.100365999999999</v>
       </c>
       <c r="I9">
-        <v>0.1383774273154795</v>
+        <v>0.1151620624513844</v>
       </c>
       <c r="J9">
-        <v>0.159892940524527</v>
+        <v>0.1334366404741827</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
         <v>377.1930477676332</v>
@@ -1013,10 +1013,10 @@
         <v>3394.737429908699</v>
       </c>
       <c r="S9">
-        <v>0.03806055045932178</v>
+        <v>0.02741823441776843</v>
       </c>
       <c r="T9">
-        <v>0.04492127905774636</v>
+        <v>0.03257041917147796</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>8.100365999999999</v>
       </c>
       <c r="I10">
-        <v>0.1383774273154795</v>
+        <v>0.1151620624513844</v>
       </c>
       <c r="J10">
-        <v>0.159892940524527</v>
+        <v>0.1334366404741827</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>503.1808401921473</v>
+        <v>405.34469074736</v>
       </c>
       <c r="R10">
-        <v>4528.627561729326</v>
+        <v>3648.102216726239</v>
       </c>
       <c r="S10">
-        <v>0.0507733105677366</v>
+        <v>0.02946458270290166</v>
       </c>
       <c r="T10">
-        <v>0.05992561918242843</v>
+        <v>0.03500129857830189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>8.100365999999999</v>
       </c>
       <c r="I11">
-        <v>0.1383774273154795</v>
+        <v>0.1151620624513844</v>
       </c>
       <c r="J11">
-        <v>0.159892940524527</v>
+        <v>0.1334366404741827</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>80.90463167558899</v>
+        <v>87.670863345206</v>
       </c>
       <c r="R11">
-        <v>485.427790053534</v>
+        <v>526.0251800712359</v>
       </c>
       <c r="S11">
-        <v>0.008163657401709483</v>
+        <v>0.006372811739329377</v>
       </c>
       <c r="T11">
-        <v>0.006423482719830377</v>
+        <v>0.005046888297965689</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>8.100365999999999</v>
       </c>
       <c r="I12">
-        <v>0.1383774273154795</v>
+        <v>0.1151620624513844</v>
       </c>
       <c r="J12">
-        <v>0.159892940524527</v>
+        <v>0.1334366404741827</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>16.88579435327066</v>
+        <v>140.6500039093206</v>
       </c>
       <c r="R12">
-        <v>151.972149179436</v>
+        <v>1265.850035183886</v>
       </c>
       <c r="S12">
-        <v>0.001703855974631612</v>
+        <v>0.01022387554826166</v>
       </c>
       <c r="T12">
-        <v>0.002010990087819107</v>
+        <v>0.01214505307271383</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>8.100365999999999</v>
       </c>
       <c r="I13">
-        <v>0.1383774273154795</v>
+        <v>0.1151620624513844</v>
       </c>
       <c r="J13">
-        <v>0.159892940524527</v>
+        <v>0.1334366404741827</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>387.7515580343186</v>
+        <v>544.1679712195732</v>
       </c>
       <c r="R13">
-        <v>3489.764022308868</v>
+        <v>4897.51174097616</v>
       </c>
       <c r="S13">
-        <v>0.03912595374593805</v>
+        <v>0.03955567337691534</v>
       </c>
       <c r="T13">
-        <v>0.04617873008694998</v>
+        <v>0.04698861505324681</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.791195666666667</v>
+        <v>2.330465</v>
       </c>
       <c r="H14">
-        <v>8.373587000000001</v>
+        <v>6.991395000000001</v>
       </c>
       <c r="I14">
-        <v>0.1430448237107242</v>
+        <v>0.09939593687646915</v>
       </c>
       <c r="J14">
-        <v>0.1652860436390099</v>
+        <v>0.1151686554691478</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>5.635552446000667</v>
+        <v>25.25383461274501</v>
       </c>
       <c r="R14">
-        <v>33.813314676004</v>
+        <v>151.52300767647</v>
       </c>
       <c r="S14">
-        <v>0.0005686537159330118</v>
+        <v>0.001835706043517414</v>
       </c>
       <c r="T14">
-        <v>0.0004474388301863504</v>
+        <v>0.001453770129808959</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.791195666666667</v>
+        <v>2.330465</v>
       </c>
       <c r="H15">
-        <v>8.373587000000001</v>
+        <v>6.991395000000001</v>
       </c>
       <c r="I15">
-        <v>0.1430448237107242</v>
+        <v>0.09939593687646915</v>
       </c>
       <c r="J15">
-        <v>0.1652860436390099</v>
+        <v>0.1151686554691478</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>389.9155669357944</v>
+        <v>325.5538809230833</v>
       </c>
       <c r="R15">
-        <v>3509.24010242215</v>
+        <v>2929.98492830775</v>
       </c>
       <c r="S15">
-        <v>0.03934431240996036</v>
+        <v>0.02366457355349303</v>
       </c>
       <c r="T15">
-        <v>0.04643644970379329</v>
+        <v>0.0281114045641117</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.791195666666667</v>
+        <v>2.330465</v>
       </c>
       <c r="H16">
-        <v>8.373587000000001</v>
+        <v>6.991395000000001</v>
       </c>
       <c r="I16">
-        <v>0.1430448237107242</v>
+        <v>0.09939593687646915</v>
       </c>
       <c r="J16">
-        <v>0.1652860436390099</v>
+        <v>0.1151686554691478</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>520.1528600167009</v>
+        <v>349.8514566092001</v>
       </c>
       <c r="R16">
-        <v>4681.375740150307</v>
+        <v>3148.6631094828</v>
       </c>
       <c r="S16">
-        <v>0.05248586709748201</v>
+        <v>0.02543076895366866</v>
       </c>
       <c r="T16">
-        <v>0.06194687817228671</v>
+        <v>0.03020948730882617</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.791195666666667</v>
+        <v>2.330465</v>
       </c>
       <c r="H17">
-        <v>8.373587000000001</v>
+        <v>6.991395000000001</v>
       </c>
       <c r="I17">
-        <v>0.1430448237107242</v>
+        <v>0.09939593687646915</v>
       </c>
       <c r="J17">
-        <v>0.1652860436390099</v>
+        <v>0.1151686554691478</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>83.63350150332717</v>
+        <v>75.66838777869501</v>
       </c>
       <c r="R17">
-        <v>501.801009019963</v>
+        <v>454.01032667217</v>
       </c>
       <c r="S17">
-        <v>0.008439013186738516</v>
+        <v>0.005500349506465352</v>
       </c>
       <c r="T17">
-        <v>0.006640143346300191</v>
+        <v>0.004355950041264288</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.791195666666667</v>
+        <v>2.330465</v>
       </c>
       <c r="H18">
-        <v>8.373587000000001</v>
+        <v>6.991395000000001</v>
       </c>
       <c r="I18">
-        <v>0.1430448237107242</v>
+        <v>0.09939593687646915</v>
       </c>
       <c r="J18">
-        <v>0.1652860436390099</v>
+        <v>0.1151686554691478</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>17.45534313896689</v>
+        <v>121.3944819384217</v>
       </c>
       <c r="R18">
-        <v>157.098088250702</v>
+        <v>1092.550337445795</v>
       </c>
       <c r="S18">
-        <v>0.00176132612267737</v>
+        <v>0.008824187992090587</v>
       </c>
       <c r="T18">
-        <v>0.002078819704750493</v>
+        <v>0.01048234898612064</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.791195666666667</v>
+        <v>2.330465</v>
       </c>
       <c r="H19">
-        <v>8.373587000000001</v>
+        <v>6.991395000000001</v>
       </c>
       <c r="I19">
-        <v>0.1430448237107242</v>
+        <v>0.09939593687646915</v>
       </c>
       <c r="J19">
-        <v>0.1652860436390099</v>
+        <v>0.1151686554691478</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>400.8302100900029</v>
+        <v>469.6693005161334</v>
       </c>
       <c r="R19">
-        <v>3607.471890810026</v>
+        <v>4227.0237046452</v>
       </c>
       <c r="S19">
-        <v>0.04044565117793297</v>
+        <v>0.03414035082723411</v>
       </c>
       <c r="T19">
-        <v>0.0477363138816929</v>
+        <v>0.04055569443901604</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.513618</v>
+        <v>3.871119</v>
       </c>
       <c r="H20">
-        <v>7.027236</v>
+        <v>7.742238</v>
       </c>
       <c r="I20">
-        <v>0.1800679448592918</v>
+        <v>0.1651058907837279</v>
       </c>
       <c r="J20">
-        <v>0.1387104518240058</v>
+        <v>0.1275372283760457</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>7.094156368428</v>
+        <v>41.94896683376701</v>
       </c>
       <c r="R20">
-        <v>28.376625473712</v>
+        <v>167.795867335068</v>
       </c>
       <c r="S20">
-        <v>0.0007158337037887527</v>
+        <v>0.003049278381556937</v>
       </c>
       <c r="T20">
-        <v>0.0003754971740645207</v>
+        <v>0.001609898216632282</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.513618</v>
+        <v>3.871119</v>
       </c>
       <c r="H21">
-        <v>7.027236</v>
+        <v>7.742238</v>
       </c>
       <c r="I21">
-        <v>0.1800679448592918</v>
+        <v>0.1651058907837279</v>
       </c>
       <c r="J21">
-        <v>0.1387104518240058</v>
+        <v>0.1275372283760457</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>490.8342223466999</v>
+        <v>540.7752589998499</v>
       </c>
       <c r="R21">
-        <v>2945.0053340802</v>
+        <v>3244.6515539991</v>
       </c>
       <c r="S21">
-        <v>0.04952747882643128</v>
+        <v>0.03930905648006916</v>
       </c>
       <c r="T21">
-        <v>0.03897014398616572</v>
+        <v>0.03113043743768433</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.513618</v>
+        <v>3.871119</v>
       </c>
       <c r="H22">
-        <v>7.027236</v>
+        <v>7.742238</v>
       </c>
       <c r="I22">
-        <v>0.1800679448592918</v>
+        <v>0.1651058907837279</v>
       </c>
       <c r="J22">
-        <v>0.1387104518240058</v>
+        <v>0.1275372283760457</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>654.7797682305661</v>
+        <v>581.13579086472</v>
       </c>
       <c r="R22">
-        <v>3928.678609383396</v>
+        <v>3486.81474518832</v>
       </c>
       <c r="S22">
-        <v>0.06607035457301172</v>
+        <v>0.04224287122147591</v>
       </c>
       <c r="T22">
-        <v>0.05198672114828536</v>
+        <v>0.03345384441916266</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.513618</v>
+        <v>3.871119</v>
       </c>
       <c r="H23">
-        <v>7.027236</v>
+        <v>7.742238</v>
       </c>
       <c r="I23">
-        <v>0.1800679448592918</v>
+        <v>0.1651058907837279</v>
       </c>
       <c r="J23">
-        <v>0.1387104518240058</v>
+        <v>0.1275372283760457</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>105.279676303041</v>
+        <v>125.692226070537</v>
       </c>
       <c r="R23">
-        <v>421.118705212164</v>
+        <v>502.768904282148</v>
       </c>
       <c r="S23">
-        <v>0.01062321391125278</v>
+        <v>0.009136591830865791</v>
       </c>
       <c r="T23">
-        <v>0.005572504873751376</v>
+        <v>0.004823758625507203</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.513618</v>
+        <v>3.871119</v>
       </c>
       <c r="H24">
-        <v>7.027236</v>
+        <v>7.742238</v>
       </c>
       <c r="I24">
-        <v>0.1800679448592918</v>
+        <v>0.1651058907837279</v>
       </c>
       <c r="J24">
-        <v>0.1387104518240058</v>
+        <v>0.1275372283760457</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>21.973166762076</v>
+        <v>201.647519068933</v>
       </c>
       <c r="R24">
-        <v>131.839000572456</v>
+        <v>1209.885114413598</v>
       </c>
       <c r="S24">
-        <v>0.002217195749626563</v>
+        <v>0.014657796532346</v>
       </c>
       <c r="T24">
-        <v>0.001744575731610842</v>
+        <v>0.01160810405499971</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.513618</v>
+        <v>3.871119</v>
       </c>
       <c r="H25">
-        <v>7.027236</v>
+        <v>7.742238</v>
       </c>
       <c r="I25">
-        <v>0.1800679448592918</v>
+        <v>0.1651058907837279</v>
       </c>
       <c r="J25">
-        <v>0.1387104518240058</v>
+        <v>0.1275372283760457</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>504.573813271188</v>
+        <v>780.16436760248</v>
       </c>
       <c r="R25">
-        <v>3027.442879627128</v>
+        <v>4680.98620561488</v>
       </c>
       <c r="S25">
-        <v>0.05091386809518065</v>
+        <v>0.05671029633741406</v>
       </c>
       <c r="T25">
-        <v>0.04006100891012801</v>
+        <v>0.04491118562205949</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.567523333333333</v>
+        <v>6.574607333333333</v>
       </c>
       <c r="H26">
-        <v>10.70257</v>
+        <v>19.723822</v>
       </c>
       <c r="I26">
-        <v>0.1828305168265029</v>
+        <v>0.2804115296696458</v>
       </c>
       <c r="J26">
-        <v>0.2112577861876348</v>
+        <v>0.3249088430066957</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>7.202993716073333</v>
+        <v>71.245028884682</v>
       </c>
       <c r="R26">
-        <v>43.21796229644</v>
+        <v>427.470173308092</v>
       </c>
       <c r="S26">
-        <v>0.0007268159034513134</v>
+        <v>0.00517881470674475</v>
       </c>
       <c r="T26">
-        <v>0.0005718869823395312</v>
+        <v>0.004101313581805748</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.567523333333333</v>
+        <v>6.574607333333333</v>
       </c>
       <c r="H27">
-        <v>10.70257</v>
+        <v>19.723822</v>
       </c>
       <c r="I27">
-        <v>0.1828305168265029</v>
+        <v>0.2804115296696458</v>
       </c>
       <c r="J27">
-        <v>0.2112577861876348</v>
+        <v>0.3249088430066957</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>498.3645180040555</v>
+        <v>918.438566085322</v>
       </c>
       <c r="R27">
-        <v>4485.280662036499</v>
+        <v>8265.947094767898</v>
       </c>
       <c r="S27">
-        <v>0.05028732103332412</v>
+        <v>0.06676147413713629</v>
       </c>
       <c r="T27">
-        <v>0.05935202602019025</v>
+        <v>0.07930668197012565</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.567523333333333</v>
+        <v>6.574607333333333</v>
       </c>
       <c r="H28">
-        <v>10.70257</v>
+        <v>19.723822</v>
       </c>
       <c r="I28">
-        <v>0.1828305168265029</v>
+        <v>0.2804115296696458</v>
       </c>
       <c r="J28">
-        <v>0.2112577861876348</v>
+        <v>0.3249088430066957</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>664.8252887357523</v>
+        <v>986.9858385344533</v>
       </c>
       <c r="R28">
-        <v>5983.42759862177</v>
+        <v>8882.87254681008</v>
       </c>
       <c r="S28">
-        <v>0.06708399478282102</v>
+        <v>0.07174418841522855</v>
       </c>
       <c r="T28">
-        <v>0.07917643895266993</v>
+        <v>0.08522570250866192</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.567523333333333</v>
+        <v>6.574607333333333</v>
       </c>
       <c r="H29">
-        <v>10.70257</v>
+        <v>19.723822</v>
       </c>
       <c r="I29">
-        <v>0.1828305168265029</v>
+        <v>0.2804115296696458</v>
       </c>
       <c r="J29">
-        <v>0.2112577861876348</v>
+        <v>0.3249088430066957</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>106.8948592979883</v>
+        <v>213.4723916434353</v>
       </c>
       <c r="R29">
-        <v>641.3691557879299</v>
+        <v>1280.834349860612</v>
       </c>
       <c r="S29">
-        <v>0.01078619346308721</v>
+        <v>0.01551734876992509</v>
       </c>
       <c r="T29">
-        <v>0.008486995952130434</v>
+        <v>0.0122888183623997</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.567523333333333</v>
+        <v>6.574607333333333</v>
       </c>
       <c r="H30">
-        <v>10.70257</v>
+        <v>19.723822</v>
       </c>
       <c r="I30">
-        <v>0.1828305168265029</v>
+        <v>0.2804115296696458</v>
       </c>
       <c r="J30">
-        <v>0.2112577861876348</v>
+        <v>0.3249088430066957</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>22.31027537169111</v>
+        <v>342.472876090629</v>
       </c>
       <c r="R30">
-        <v>200.79247834522</v>
+        <v>3082.255884815661</v>
       </c>
       <c r="S30">
-        <v>0.002251211591971653</v>
+        <v>0.02489441853171393</v>
       </c>
       <c r="T30">
-        <v>0.002657011076313112</v>
+        <v>0.02957235080325514</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.567523333333333</v>
+        <v>6.574607333333333</v>
       </c>
       <c r="H31">
-        <v>10.70257</v>
+        <v>19.723822</v>
       </c>
       <c r="I31">
-        <v>0.1828305168265029</v>
+        <v>0.2804115296696458</v>
       </c>
       <c r="J31">
-        <v>0.2112577861876348</v>
+        <v>0.3249088430066957</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>512.3148994096512</v>
+        <v>1325.010771418969</v>
       </c>
       <c r="R31">
-        <v>4610.83409468686</v>
+        <v>11925.09694277072</v>
       </c>
       <c r="S31">
-        <v>0.05169498005184756</v>
+        <v>0.09631528510889717</v>
       </c>
       <c r="T31">
-        <v>0.06101342720399155</v>
+        <v>0.1144139757804475</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.576876</v>
+        <v>2.207955</v>
       </c>
       <c r="H32">
-        <v>7.730627999999999</v>
+        <v>6.623865</v>
       </c>
       <c r="I32">
-        <v>0.132061244414513</v>
+        <v>0.09417080102300804</v>
       </c>
       <c r="J32">
-        <v>0.1525946905388279</v>
+        <v>0.1091143650243116</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N32">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O32">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P32">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q32">
-        <v>5.202831180295999</v>
+        <v>23.926268106315</v>
       </c>
       <c r="R32">
-        <v>31.216987081776</v>
+        <v>143.55760863789</v>
       </c>
       <c r="S32">
-        <v>0.0005249901074289652</v>
+        <v>0.001739204981544237</v>
       </c>
       <c r="T32">
-        <v>0.0004130826071223534</v>
+        <v>0.001377347021715555</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.576876</v>
+        <v>2.207955</v>
       </c>
       <c r="H33">
-        <v>7.730627999999999</v>
+        <v>6.623865</v>
       </c>
       <c r="I33">
-        <v>0.132061244414513</v>
+        <v>0.09417080102300804</v>
       </c>
       <c r="J33">
-        <v>0.1525946905388279</v>
+        <v>0.1091143650243116</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P33">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q33">
-        <v>359.9762203927332</v>
+        <v>308.43986893325</v>
       </c>
       <c r="R33">
-        <v>3239.785983534599</v>
+        <v>2775.95882039925</v>
       </c>
       <c r="S33">
-        <v>0.03632329169771412</v>
+        <v>0.02242055276535056</v>
       </c>
       <c r="T33">
-        <v>0.04287086505469354</v>
+        <v>0.02663361872602817</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.576876</v>
+        <v>2.207955</v>
       </c>
       <c r="H34">
-        <v>7.730627999999999</v>
+        <v>6.623865</v>
       </c>
       <c r="I34">
-        <v>0.132061244414513</v>
+        <v>0.09417080102300804</v>
       </c>
       <c r="J34">
-        <v>0.1525946905388279</v>
+        <v>0.1091143650243116</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N34">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O34">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P34">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q34">
-        <v>480.2133498971453</v>
+        <v>331.4601476004</v>
       </c>
       <c r="R34">
-        <v>4321.920149074308</v>
+        <v>2983.1413284036</v>
       </c>
       <c r="S34">
-        <v>0.0484557829026047</v>
+        <v>0.02409390120216243</v>
       </c>
       <c r="T34">
-        <v>0.05719033801300069</v>
+        <v>0.02862140755212341</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.576876</v>
+        <v>2.207955</v>
       </c>
       <c r="H35">
-        <v>7.730627999999999</v>
+        <v>6.623865</v>
       </c>
       <c r="I35">
-        <v>0.132061244414513</v>
+        <v>0.09417080102300804</v>
       </c>
       <c r="J35">
-        <v>0.1525946905388279</v>
+        <v>0.1091143650243116</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N35">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O35">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P35">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q35">
-        <v>77.211771784262</v>
+        <v>71.690583268965</v>
       </c>
       <c r="R35">
-        <v>463.2706307055719</v>
+        <v>430.14349961379</v>
       </c>
       <c r="S35">
-        <v>0.007791030490728761</v>
+        <v>0.005211202139722204</v>
       </c>
       <c r="T35">
-        <v>0.006130285393454674</v>
+        <v>0.004126962504633062</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.576876</v>
+        <v>2.207955</v>
       </c>
       <c r="H36">
-        <v>7.730627999999999</v>
+        <v>6.623865</v>
       </c>
       <c r="I36">
-        <v>0.132061244414513</v>
+        <v>0.09417080102300804</v>
       </c>
       <c r="J36">
-        <v>0.1525946905388279</v>
+        <v>0.1091143650243116</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N36">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O36">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P36">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q36">
-        <v>16.11504895329866</v>
+        <v>115.012906595185</v>
       </c>
       <c r="R36">
-        <v>145.035440579688</v>
+        <v>1035.116159356665</v>
       </c>
       <c r="S36">
-        <v>0.001626084143044207</v>
+        <v>0.008360310066049639</v>
       </c>
       <c r="T36">
-        <v>0.00191919924119686</v>
+        <v>0.00993130334746499</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.576876</v>
+        <v>2.207955</v>
       </c>
       <c r="H37">
-        <v>7.730627999999999</v>
+        <v>6.623865</v>
       </c>
       <c r="I37">
-        <v>0.132061244414513</v>
+        <v>0.09417080102300804</v>
       </c>
       <c r="J37">
-        <v>0.1525946905388279</v>
+        <v>0.1091143650243116</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N37">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O37">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P37">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q37">
-        <v>370.0527916372827</v>
+        <v>444.9792983036</v>
       </c>
       <c r="R37">
-        <v>3330.475124735544</v>
+        <v>4004.8136847324</v>
       </c>
       <c r="S37">
-        <v>0.0373400650729922</v>
+        <v>0.03234562986817896</v>
       </c>
       <c r="T37">
-        <v>0.04407092022935975</v>
+        <v>0.03842372587234636</v>
       </c>
     </row>
   </sheetData>
